--- a/data/trans_dic/POLIPATOLOGIA-Edad-trans_dic.xlsx
+++ b/data/trans_dic/POLIPATOLOGIA-Edad-trans_dic.xlsx
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,22; 4,11</t>
+          <t>1,26; 4,14</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,68; 4,67</t>
+          <t>1,67; 4,7</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,09; 5,88</t>
+          <t>2,18; 5,89</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>6,4; 17,44</t>
+          <t>6,25; 17,17</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>5,68; 10,43</t>
+          <t>5,74; 10,26</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>7,31; 12,9</t>
+          <t>7,25; 13,0</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>7,13; 12,5</t>
+          <t>6,96; 12,87</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>13,79; 26,51</t>
+          <t>13,57; 26,06</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>3,77; 6,51</t>
+          <t>3,71; 6,36</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>4,82; 7,88</t>
+          <t>4,88; 8,08</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>5,12; 8,58</t>
+          <t>5,03; 8,37</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>11,09; 19,23</t>
+          <t>11,58; 20,09</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,17; 6,04</t>
+          <t>3,04; 6,05</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>5,15; 9,23</t>
+          <t>5,2; 9,13</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,23; 8,53</t>
+          <t>4,31; 8,37</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>8,36; 16,13</t>
+          <t>8,52; 15,92</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>12,22; 17,96</t>
+          <t>12,27; 17,97</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>8,94; 14,08</t>
+          <t>9,29; 14,5</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>9,56; 14,95</t>
+          <t>9,55; 14,69</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>20,26; 33,25</t>
+          <t>20,52; 33,5</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>7,82; 11,07</t>
+          <t>7,68; 10,93</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>7,83; 10,84</t>
+          <t>7,51; 10,84</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>7,5; 10,83</t>
+          <t>7,28; 10,68</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>15,73; 23,78</t>
+          <t>15,67; 24,24</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>7,52; 11,98</t>
+          <t>7,71; 12,54</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>7,7; 12,59</t>
+          <t>7,68; 12,53</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>7,26; 11,72</t>
+          <t>7,1; 11,8</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>11,7; 18,42</t>
+          <t>11,83; 18,17</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>15,62; 21,87</t>
+          <t>15,82; 21,94</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>20,22; 26,77</t>
+          <t>20,27; 26,75</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>13,67; 19,44</t>
+          <t>13,89; 19,25</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>21,92; 29,81</t>
+          <t>22,11; 29,78</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>12,33; 16,3</t>
+          <t>12,3; 16,12</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>14,79; 18,95</t>
+          <t>14,79; 19,14</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>11,06; 14,78</t>
+          <t>11,21; 14,74</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>18,46; 23,17</t>
+          <t>18,76; 23,11</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>12,51; 19,26</t>
+          <t>12,4; 19,15</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>13,53; 19,84</t>
+          <t>13,68; 19,81</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>18,56; 25,69</t>
+          <t>18,85; 25,6</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>21,3; 32,51</t>
+          <t>22,7; 32,59</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>24,95; 33,35</t>
+          <t>25,42; 33,49</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>29,34; 37,53</t>
+          <t>29,48; 37,2</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>28,31; 35,79</t>
+          <t>28,24; 35,74</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>39,44; 46,24</t>
+          <t>39,89; 46,34</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>19,9; 25,03</t>
+          <t>19,73; 25,12</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>22,16; 27,34</t>
+          <t>22,39; 27,44</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>24,27; 29,47</t>
+          <t>24,34; 29,36</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>31,44; 38,56</t>
+          <t>31,74; 38,62</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>37,24; 47,22</t>
+          <t>37,31; 47,41</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>35,64; 45,71</t>
+          <t>35,91; 45,42</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>32,55; 41,95</t>
+          <t>32,6; 41,66</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>43,01; 50,73</t>
+          <t>42,59; 50,68</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>46,27; 56,19</t>
+          <t>46,89; 56,45</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>56,07; 66,32</t>
+          <t>55,79; 65,82</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>50,01; 59,04</t>
+          <t>49,85; 59,55</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>52,62; 58,77</t>
+          <t>52,76; 58,82</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>43,35; 50,47</t>
+          <t>43,43; 50,41</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>47,63; 54,38</t>
+          <t>47,45; 54,52</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>42,28; 49,19</t>
+          <t>42,66; 49,53</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>48,78; 53,88</t>
+          <t>48,59; 53,7</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>55,32; 63,55</t>
+          <t>55,2; 64,22</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>72,48; 80,14</t>
+          <t>72,27; 80,09</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>60,15; 67,65</t>
+          <t>60,23; 67,94</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>61,35; 67,49</t>
+          <t>61,66; 67,8</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>72,78; 79,37</t>
+          <t>72,94; 79,37</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>80,47; 86,32</t>
+          <t>80,9; 86,51</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>72,45; 78,69</t>
+          <t>72,14; 78,71</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>76,63; 85,72</t>
+          <t>76,48; 86,18</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>66,34; 71,79</t>
+          <t>66,59; 71,76</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>77,87; 82,56</t>
+          <t>78,04; 82,78</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>68,14; 73,01</t>
+          <t>68,36; 73,58</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>71,41; 78,78</t>
+          <t>71,16; 80,06</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>18,38; 21,16</t>
+          <t>18,5; 21,21</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>22,79; 25,83</t>
+          <t>22,9; 25,93</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>22,38; 25,38</t>
+          <t>22,48; 25,49</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>30,72; 34,72</t>
+          <t>30,92; 34,68</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>31,92; 35,19</t>
+          <t>31,84; 35,2</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>37,14; 40,32</t>
+          <t>37,07; 40,6</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>34,38; 37,88</t>
+          <t>34,37; 37,72</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>45,5; 53,21</t>
+          <t>45,43; 52,48</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>25,72; 27,96</t>
+          <t>25,55; 27,84</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>30,53; 32,86</t>
+          <t>30,55; 32,86</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>28,96; 31,24</t>
+          <t>29,05; 31,35</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>39,04; 43,55</t>
+          <t>39,14; 44,2</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/POLIPATOLOGIA-Edad-trans_dic.xlsx
+++ b/data/trans_dic/POLIPATOLOGIA-Edad-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -724,17 +724,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,26; 4,14</t>
+          <t>1,28; 3,96</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,67; 4,7</t>
+          <t>1,66; 4,57</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,18; 5,89</t>
+          <t>2,12; 5,91</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,17 +744,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>5,74; 10,26</t>
+          <t>5,59; 10,44</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>7,25; 13,0</t>
+          <t>7,4; 13,45</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>6,96; 12,87</t>
+          <t>6,82; 12,91</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,17 +764,17 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>3,71; 6,36</t>
+          <t>3,72; 6,36</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>4,88; 8,08</t>
+          <t>4,95; 8,03</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>5,03; 8,37</t>
+          <t>4,94; 8,35</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,04; 6,05</t>
+          <t>3,07; 6,11</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>5,2; 9,13</t>
+          <t>5,19; 9,34</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,31; 8,37</t>
+          <t>4,14; 8,25</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>12,27; 17,97</t>
+          <t>12,35; 18,06</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>9,29; 14,5</t>
+          <t>8,95; 14,17</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>9,55; 14,69</t>
+          <t>9,2; 14,92</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>7,68; 10,93</t>
+          <t>7,72; 10,76</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>7,51; 10,84</t>
+          <t>7,64; 10,98</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>7,28; 10,68</t>
+          <t>7,36; 11,11</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>7,71; 12,54</t>
+          <t>7,43; 12,12</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>7,68; 12,53</t>
+          <t>7,99; 12,88</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>7,1; 11,8</t>
+          <t>7,06; 11,75</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>15,82; 21,94</t>
+          <t>15,78; 21,71</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>20,27; 26,75</t>
+          <t>20,25; 26,39</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>13,89; 19,25</t>
+          <t>13,8; 19,56</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>12,3; 16,12</t>
+          <t>12,49; 16,43</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>14,79; 19,14</t>
+          <t>14,96; 18,93</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>11,21; 14,74</t>
+          <t>10,78; 14,43</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>12,4; 19,15</t>
+          <t>12,69; 19,08</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>13,68; 19,81</t>
+          <t>13,35; 19,9</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>18,85; 25,6</t>
+          <t>18,39; 25,48</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>25,42; 33,49</t>
+          <t>25,39; 33,53</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>29,48; 37,2</t>
+          <t>28,89; 37,19</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>28,24; 35,74</t>
+          <t>27,7; 35,6</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>19,73; 25,12</t>
+          <t>19,77; 24,93</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>22,39; 27,44</t>
+          <t>22,32; 27,39</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>24,34; 29,36</t>
+          <t>24,16; 29,33</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1284,17 +1284,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>37,31; 47,41</t>
+          <t>37,04; 46,57</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>35,91; 45,42</t>
+          <t>35,56; 46,22</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>32,6; 41,66</t>
+          <t>32,61; 41,82</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1304,17 +1304,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>46,89; 56,45</t>
+          <t>46,95; 56,84</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>55,79; 65,82</t>
+          <t>55,95; 65,82</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>49,85; 59,55</t>
+          <t>49,54; 59,19</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1324,17 +1324,17 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>43,43; 50,41</t>
+          <t>43,42; 50,71</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>47,45; 54,52</t>
+          <t>47,62; 54,5</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>42,66; 49,53</t>
+          <t>42,87; 49,12</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1424,17 +1424,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>55,2; 64,22</t>
+          <t>54,86; 63,74</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>72,27; 80,09</t>
+          <t>72,65; 80,28</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>60,23; 67,94</t>
+          <t>60,47; 67,96</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1444,17 +1444,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>72,94; 79,37</t>
+          <t>72,82; 79,22</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>80,9; 86,51</t>
+          <t>80,57; 86,31</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>72,14; 78,71</t>
+          <t>72,32; 78,67</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1464,17 +1464,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>66,59; 71,76</t>
+          <t>66,5; 71,78</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>78,04; 82,78</t>
+          <t>77,92; 82,7</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>68,36; 73,58</t>
+          <t>68,18; 73,13</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -1564,17 +1564,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>18,5; 21,21</t>
+          <t>18,53; 21,24</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>22,9; 25,93</t>
+          <t>22,79; 26,01</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>22,48; 25,49</t>
+          <t>22,53; 25,48</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1584,17 +1584,17 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>31,84; 35,2</t>
+          <t>31,79; 35,09</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>37,07; 40,6</t>
+          <t>37,13; 40,36</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>34,37; 37,72</t>
+          <t>34,37; 37,76</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1604,17 +1604,17 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>25,55; 27,84</t>
+          <t>25,72; 27,75</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>30,55; 32,86</t>
+          <t>30,43; 32,74</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>29,05; 31,35</t>
+          <t>29,04; 31,24</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">

--- a/data/trans_dic/POLIPATOLOGIA-Edad-trans_dic.xlsx
+++ b/data/trans_dic/POLIPATOLOGIA-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,28; 3,96</t>
+          <t>1,22; 4,11</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,66; 4,57</t>
+          <t>1,68; 4,67</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,12; 5,91</t>
+          <t>2,09; 5,88</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>6,25; 17,17</t>
+          <t>6,4; 17,44</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>5,59; 10,44</t>
+          <t>5,68; 10,43</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>7,4; 13,45</t>
+          <t>7,31; 12,9</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>6,82; 12,91</t>
+          <t>7,13; 12,5</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>13,57; 26,06</t>
+          <t>13,79; 26,51</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>3,72; 6,36</t>
+          <t>3,77; 6,51</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>4,95; 8,03</t>
+          <t>4,82; 7,88</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>4,94; 8,35</t>
+          <t>5,12; 8,58</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>11,58; 20,09</t>
+          <t>11,09; 19,23</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,07; 6,11</t>
+          <t>3,17; 6,04</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>5,19; 9,34</t>
+          <t>5,15; 9,23</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,14; 8,25</t>
+          <t>4,23; 8,53</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>8,52; 15,92</t>
+          <t>8,36; 16,13</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>12,35; 18,06</t>
+          <t>12,22; 17,96</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>8,95; 14,17</t>
+          <t>8,94; 14,08</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>9,2; 14,92</t>
+          <t>9,56; 14,95</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>20,52; 33,5</t>
+          <t>20,26; 33,25</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>7,72; 10,76</t>
+          <t>7,82; 11,07</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>7,64; 10,98</t>
+          <t>7,83; 10,84</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>7,36; 11,11</t>
+          <t>7,5; 10,83</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>15,67; 24,24</t>
+          <t>15,73; 23,78</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>7,43; 12,12</t>
+          <t>7,52; 11,98</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>7,99; 12,88</t>
+          <t>7,7; 12,59</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>7,06; 11,75</t>
+          <t>7,26; 11,72</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>11,83; 18,17</t>
+          <t>11,7; 18,42</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>15,78; 21,71</t>
+          <t>15,62; 21,87</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>20,25; 26,39</t>
+          <t>20,22; 26,77</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>13,8; 19,56</t>
+          <t>13,67; 19,44</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>22,11; 29,78</t>
+          <t>21,92; 29,81</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>12,49; 16,43</t>
+          <t>12,33; 16,3</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>14,96; 18,93</t>
+          <t>14,79; 18,95</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>10,78; 14,43</t>
+          <t>11,06; 14,78</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>18,76; 23,11</t>
+          <t>18,46; 23,17</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>12,69; 19,08</t>
+          <t>12,51; 19,26</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>13,35; 19,9</t>
+          <t>13,53; 19,84</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>18,39; 25,48</t>
+          <t>18,56; 25,69</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>22,7; 32,59</t>
+          <t>21,3; 32,51</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>25,39; 33,53</t>
+          <t>24,95; 33,35</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>28,89; 37,19</t>
+          <t>29,34; 37,53</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>27,7; 35,6</t>
+          <t>28,31; 35,79</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>39,89; 46,34</t>
+          <t>39,44; 46,24</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>19,77; 24,93</t>
+          <t>19,9; 25,03</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>22,32; 27,39</t>
+          <t>22,16; 27,34</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>24,16; 29,33</t>
+          <t>24,27; 29,47</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>31,74; 38,62</t>
+          <t>31,44; 38,56</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>37,04; 46,57</t>
+          <t>37,24; 47,22</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>35,56; 46,22</t>
+          <t>35,64; 45,71</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>32,61; 41,82</t>
+          <t>32,55; 41,95</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>42,59; 50,68</t>
+          <t>43,01; 50,73</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>46,95; 56,84</t>
+          <t>46,27; 56,19</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>55,95; 65,82</t>
+          <t>56,07; 66,32</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>49,54; 59,19</t>
+          <t>50,01; 59,04</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>52,76; 58,82</t>
+          <t>52,62; 58,77</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>43,42; 50,71</t>
+          <t>43,35; 50,47</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>47,62; 54,5</t>
+          <t>47,63; 54,38</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>42,87; 49,12</t>
+          <t>42,28; 49,19</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>48,59; 53,7</t>
+          <t>48,78; 53,88</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>54,86; 63,74</t>
+          <t>55,32; 63,55</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>72,65; 80,28</t>
+          <t>72,48; 80,14</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>60,47; 67,96</t>
+          <t>60,15; 67,65</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>61,66; 67,8</t>
+          <t>61,35; 67,49</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>72,82; 79,22</t>
+          <t>72,78; 79,37</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>80,57; 86,31</t>
+          <t>80,47; 86,32</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>72,32; 78,67</t>
+          <t>72,45; 78,69</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>76,48; 86,18</t>
+          <t>76,63; 85,72</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>66,5; 71,78</t>
+          <t>66,34; 71,79</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>77,92; 82,7</t>
+          <t>77,87; 82,56</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>68,18; 73,13</t>
+          <t>68,14; 73,01</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>71,16; 80,06</t>
+          <t>71,41; 78,78</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>18,53; 21,24</t>
+          <t>18,38; 21,16</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>22,79; 26,01</t>
+          <t>22,79; 25,83</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>22,53; 25,48</t>
+          <t>22,38; 25,38</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>30,92; 34,68</t>
+          <t>30,72; 34,72</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>31,79; 35,09</t>
+          <t>31,92; 35,19</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>37,13; 40,36</t>
+          <t>37,14; 40,32</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>34,37; 37,76</t>
+          <t>34,38; 37,88</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>45,43; 52,48</t>
+          <t>45,5; 53,21</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>25,72; 27,75</t>
+          <t>25,72; 27,96</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>30,43; 32,74</t>
+          <t>30,53; 32,86</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>29,04; 31,24</t>
+          <t>28,96; 31,24</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>39,14; 44,2</t>
+          <t>39,04; 43,55</t>
         </is>
       </c>
     </row>
